--- a/1주차-개별플젝1/시스템 입출력.xlsx
+++ b/1주차-개별플젝1/시스템 입출력.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkdle\OneDrive\바탕 화면\SW-camp-Project\1주차-개별플젝1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93E13EE-DE6D-49D5-A79D-6C707D9EBF8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D69505D-D023-4C28-90D7-CF37148E5367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="456" yWindow="600" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29820" yWindow="1410" windowWidth="13215" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,10 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A0-&gt;A5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>D13-&gt;D23</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -137,6 +133,10 @@
   </si>
   <si>
     <t>입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0-&gt;A8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -468,17 +468,17 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -492,7 +492,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -503,10 +503,10 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -514,13 +514,13 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -528,13 +528,13 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -542,13 +542,13 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -556,13 +556,13 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -570,24 +570,24 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" t="s">
         <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
